--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>I-1</t>
   </si>
@@ -84,6 +84,11 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>Добавить на левой панели кнопки: 3D и Camera
+Добавить кнопки на верхней панели: riversky, foriver, typeplan.
+реализовать нажатое/отжатое состояние кнопки</t>
   </si>
 </sst>
 </file>
@@ -119,11 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -407,7 +413,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,9 +490,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44006</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +481,9 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="2">
+        <v>44012</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -489,6 +492,9 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="2">
+        <v>44012</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -513,5 +519,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +441,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="2">
+        <v>44018</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -449,6 +452,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2">
+        <v>44019</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -464,6 +470,9 @@
       </c>
       <c r="B5" t="s">
         <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44018</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.25">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>I-1</t>
   </si>
@@ -89,6 +89,10 @@
     <t>Добавить на левой панели кнопки: 3D и Camera
 Добавить кнопки на верхней панели: riversky, foriver, typeplan.
 реализовать нажатое/отжатое состояние кнопки</t>
+  </si>
+  <si>
+    <t>при нажатии на кнопку 3d должно выходить окно с кнопками джостика(вверх,вниз,влево,вправо)
+при нажании на кнопку camera должно выходить пустое окно, кнопки на нем будут в другой задачи</t>
   </si>
 </sst>
 </file>
@@ -413,7 +417,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,9 +520,15 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44020</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>I-1</t>
   </si>
@@ -93,6 +93,11 @@
   <si>
     <t>при нажатии на кнопку 3d должно выходить окно с кнопками джостика(вверх,вниз,влево,вправо)
 при нажании на кнопку camera должно выходить пустое окно, кнопки на нем будут в другой задачи</t>
+  </si>
+  <si>
+    <t>Исправить ошибку:
+На телефонах не отправлялись команды на vvvv сервер.
+Реализовать отправку через http, убрать отправку через webview</t>
   </si>
 </sst>
 </file>
@@ -417,7 +422,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,9 +536,15 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44028</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>I-1</t>
   </si>
@@ -98,6 +98,16 @@
     <t>Исправить ошибку:
 На телефонах не отправлялись команды на vvvv сервер.
 Реализовать отправку через http, убрать отправку через webview</t>
+  </si>
+  <si>
+    <t>I-11</t>
+  </si>
+  <si>
+    <t>Выполнить:
+- На кнопке приимущество, заменить иконку на "button_riversky"
+- Кнопку buttonRiverSky убрать
+- кнопку buttonForiver поставить после кнопки buttonRiversky
+- на кнопки butttonForRiver назначить track=14</t>
   </si>
 </sst>
 </file>
@@ -419,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +557,17 @@
         <v>44028</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44028</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>I-1</t>
   </si>
@@ -108,6 +108,24 @@
 - Кнопку buttonRiverSky убрать
 - кнопку buttonForiver поставить после кнопки buttonRiversky
 - на кнопки butttonForRiver назначить track=14</t>
+  </si>
+  <si>
+    <t>I-12</t>
+  </si>
+  <si>
+    <t>1)Добавить кнопку галерия.
+2)При нажатии на кнопку галерея, должно открываться всплывающее активисти.
+3)Сделать верстстку согласно макета
+4)добавить новый тег в конце URL, и выводить при нажатии кнопок на этой активити</t>
+  </si>
+  <si>
+    <t>I-13</t>
+  </si>
+  <si>
+    <t>1)добавить кнопку видео.
+2) при нажатии на эту кнопку должно открывться всплываюещее активити
+3)Сделать верстку согласно макета
+4) добавить тег в конце URL,и выводить при нажатии на этой активити</t>
   </si>
 </sst>
 </file>
@@ -429,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +586,28 @@
         <v>44028</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>I-1</t>
   </si>
@@ -126,6 +126,18 @@
 2) при нажатии на эту кнопку должно открывться всплываюещее активити
 3)Сделать верстку согласно макета
 4) добавить тег в конце URL,и выводить при нажатии на этой активити</t>
+  </si>
+  <si>
+    <t>Исправить ошибки по нажатию видео кнопок и кнопок галерия</t>
+  </si>
+  <si>
+    <t>I-14</t>
+  </si>
+  <si>
+    <t>I-15</t>
+  </si>
+  <si>
+    <t>Добавить в настройках указание второго vvvv севера и привязать его к кнопкам галерии</t>
   </si>
 </sst>
 </file>
@@ -447,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +620,28 @@
         <v>44047</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>I-1</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Добавить в настройках указание второго vvvv севера и привязать его к кнопкам галерии</t>
+  </si>
+  <si>
+    <t>I-16</t>
+  </si>
+  <si>
+    <t>Создать окно exception-a</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +648,17 @@
         <v>44054</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>I-1</t>
   </si>
@@ -144,6 +144,14 @@
   </si>
   <si>
     <t>Создать окно exception-a</t>
+  </si>
+  <si>
+    <t>I-17</t>
+  </si>
+  <si>
+    <t>Отредактировать интерфейс:
+1)Удалить раздел ввода в эксплуатацию и убрать фильтр к нему
+2)Удалить кнопку button_remont_whitebox и убрать ее из фильтра</t>
   </si>
 </sst>
 </file>
@@ -465,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="C17" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +667,17 @@
         <v>44054</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>I-1</t>
   </si>
@@ -152,6 +152,12 @@
     <t>Отредактировать интерфейс:
 1)Удалить раздел ввода в эксплуатацию и убрать фильтр к нему
 2)Удалить кнопку button_remont_whitebox и убрать ее из фильтра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix bug разрыва соединения с http сервером, при повторной отравки команды </t>
+  </si>
+  <si>
+    <t>I-18</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,6 +684,17 @@
         <v>44055</v>
       </c>
     </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>I-1</t>
   </si>
@@ -158,6 +158,33 @@
   </si>
   <si>
     <t>I-18</t>
+  </si>
+  <si>
+    <t>I-19</t>
+  </si>
+  <si>
+    <t>I-20</t>
+  </si>
+  <si>
+    <t>Сделать активити с планировкой и добавить логигу:
+выводить однотипные по площади квартиры в записимости от нажатой кнопки (кол-во комнат в кваритре)</t>
+  </si>
+  <si>
+    <t>Добавить раздел к URL trackTV, назначить ему следующий по индексу номер.
+И выводить по нему след. Видео: галлерия, ход строительства, 3д тур, видео</t>
+  </si>
+  <si>
+    <t>Удалить кнопку камера (удалить все иконки к ней), и ее функционал передать кнопки ход строительства</t>
+  </si>
+  <si>
+    <t>I-21</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Реализацию можно посмотреть тут:
+https://www.ingrad.ru/projects/riversky/</t>
   </si>
 </sst>
 </file>
@@ -479,20 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -502,8 +529,11 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,7 +544,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -525,7 +555,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -533,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -544,7 +574,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -552,7 +582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -563,7 +593,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -574,7 +604,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -585,7 +615,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -596,7 +626,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -607,7 +637,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -618,7 +648,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -629,7 +659,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -640,7 +670,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -651,7 +681,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -662,7 +692,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -673,7 +703,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -684,7 +714,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -693,6 +723,33 @@
       </c>
       <c r="C19" s="2">
         <v>44055</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +751,9 @@
       <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C22" s="2">
+        <v>44064</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +732,9 @@
       <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C20" s="2">
+        <v>44067</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
@@ -742,6 +745,9 @@
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44064</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>I-1</t>
   </si>
@@ -185,6 +185,12 @@
   <si>
     <t>Реализацию можно посмотреть тут:
 https://www.ingrad.ru/projects/riversky/</t>
+  </si>
+  <si>
+    <t>I-22</t>
+  </si>
+  <si>
+    <t>Добавить 3 кнопки на форме "камера", и отправлять на видео сервер данные по каждой камере.</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,6 +767,17 @@
         <v>44064</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44070</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>I-1</t>
   </si>
@@ -191,6 +191,42 @@
   </si>
   <si>
     <t>Добавить 3 кнопки на форме "камера", и отправлять на видео сервер данные по каждой камере.</t>
+  </si>
+  <si>
+    <t>I-23</t>
+  </si>
+  <si>
+    <t>I-24</t>
+  </si>
+  <si>
+    <t>I-25</t>
+  </si>
+  <si>
+    <t>Заменить кнопку МОП на активити галерия, в разделе riversky на дву другие кнопки, но на одной из них ссылку оставить, а на следующей сделать номер по порядку</t>
+  </si>
+  <si>
+    <t>Тип планировки поделить по двум ЖК. Т.е. если нажат реверскай и нажата кнопка по типу планировки, то соответственно выбираем данные из базы от риверская, тоже самое и с форивер.</t>
+  </si>
+  <si>
+    <t>на окне по типу планировки при нажатии на кнопку с брилиантом, выбирать квартир любой комнатности но с дополнительными атрибутами(камин, таунхаус, пентхаус и тд)</t>
+  </si>
+  <si>
+    <t>I-26</t>
+  </si>
+  <si>
+    <t>для теста, временно сделать редактируемое поле, куда записывать название файла с картинкой, при нажатии на кнопку квартир на активити по типу планировки. Выявленна проблема что не на все кнопки подтягивается картинка из папки, которая офлайном берется их яндекс диска.</t>
+  </si>
+  <si>
+    <t>I-27</t>
+  </si>
+  <si>
+    <t>I-28</t>
+  </si>
+  <si>
+    <t>Сейчас при выборе квартиры, помимо самих данных о квартире, еще меняется значение поля track на значение 13. Нужно еще в плюс к этим всем изменениям полей, еще поменять при выборе квартиры значение поля traсkTV на значение 5.</t>
+  </si>
+  <si>
+    <t>Заменить иконки на активити с видео, 4 шт.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
@@ -520,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="2" max="2" width="62" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.5703125" customWidth="1"/>
   </cols>
@@ -529,7 +565,7 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" t="s">
@@ -539,11 +575,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2">
@@ -554,7 +590,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2">
@@ -565,7 +601,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -573,7 +609,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
@@ -588,11 +624,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
@@ -776,6 +812,57 @@
       </c>
       <c r="C23" s="2">
         <v>44070</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,6 +856,9 @@
       <c r="B28" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C28" s="2">
+        <v>44076</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,6 +867,9 @@
       <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C29" s="2">
+        <v>44076</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,6 +832,9 @@
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C25" s="2">
+        <v>44077</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>I-1</t>
   </si>
@@ -227,6 +227,43 @@
   </si>
   <si>
     <t>Заменить иконки на активити с видео, 4 шт.</t>
+  </si>
+  <si>
+    <t>I-29</t>
+  </si>
+  <si>
+    <t>I-30</t>
+  </si>
+  <si>
+    <t>I-31</t>
+  </si>
+  <si>
+    <t>I-32</t>
+  </si>
+  <si>
+    <t>I-33</t>
+  </si>
+  <si>
+    <t>I-34</t>
+  </si>
+  <si>
+    <t>I-35</t>
+  </si>
+  <si>
+    <t>I-36</t>
+  </si>
+  <si>
+    <t>1)Кнопки ВЛЕВО\ВПРАВО (на активити 3D) сделать как на джостике, при нажатии отправляется какое то число, при отжатии отправляется 0
+2) кнопку home удалить
+3) на джостике увеличить площади нажатия</t>
+  </si>
+  <si>
+    <t>BUG: В режиме выбора по планировке вываливается ошибка.
+В классе FlatPlansAdapter.java: 94 
+NullPointerException: boolenValue()</t>
+  </si>
+  <si>
+    <t>на активити галерия, кнопки влево\вправо, необходимо видеть нажатое состояние</t>
   </si>
 </sst>
 </file>
@@ -548,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,6 +880,9 @@
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C26" s="2">
+        <v>44078</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -872,6 +912,58 @@
       </c>
       <c r="C29" s="2">
         <v>44076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +921,9 @@
       <c r="B30" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C30" s="2">
+        <v>44081</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,6 +943,9 @@
       <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C32" s="2">
+        <v>44083</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>I-1</t>
   </si>
@@ -264,6 +264,13 @@
   </si>
   <si>
     <t>на активити галерия, кнопки влево\вправо, необходимо видеть нажатое состояние</t>
+  </si>
+  <si>
+    <t>Исправить наименование кнопок на активити видео:
+с video1 на ОКРУЖЕНИЕ
+с video2 на КОМПЛЕКСНОЕ РАЗВИТИЕ
+с video3 на RIVERSKY
+с video4 на FORIVER</t>
   </si>
 </sst>
 </file>
@@ -588,7 +595,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,27 +954,33 @@
         <v>44083</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>I-1</t>
   </si>
@@ -271,6 +271,9 @@
 с video2 на КОМПЛЕКСНОЕ РАЗВИТИЕ
 с video3 на RIVERSKY
 с video4 на FORIVER</t>
+  </si>
+  <si>
+    <t>Перебить значение кнопок на активити галерея</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,6 +972,12 @@
       <c r="A34" t="s">
         <v>65</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44097</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>I-1</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Перебить значение кнопок на активити галерея</t>
+  </si>
+  <si>
+    <t>Сделать окно с джостиком 'виды из окон'. Макет прилагается</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +986,9 @@
       <c r="A35" t="s">
         <v>66</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>I-1</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Сделать окно с джостиком 'виды из окон'. Макет прилагается</t>
+  </si>
+  <si>
+    <t>изменил номер кнопки "из окна 360", поменял номер копусов на планах на форме "из окна 360", на активити для "из окна 360" для телефонов исправлено нажатие кнопок на планах</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +992,19 @@
       <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44130</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>I-1</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>изменил номер кнопки "из окна 360", поменял номер копусов на планах на форме "из окна 360", на активити для "из окна 360" для телефонов исправлено нажатие кнопок на планах</t>
+  </si>
+  <si>
+    <t>БАГ: при нажатии на кнопки плана на активити "из окна 360", посылалась команда по корпусу 2 раза, и второй раз перетирала нужное значение</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C36" sqref="C36:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,9 +1010,15 @@
         <v>44130</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44131</v>
       </c>
     </row>
   </sheetData>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>I-1</t>
   </si>
@@ -283,6 +283,30 @@
   </si>
   <si>
     <t>БАГ: при нажатии на кнопки плана на активити "из окна 360", посылалась команда по корпусу 2 раза, и второй раз перетирала нужное значение</t>
+  </si>
+  <si>
+    <t>I-37</t>
+  </si>
+  <si>
+    <t>I-38</t>
+  </si>
+  <si>
+    <t>I-39</t>
+  </si>
+  <si>
+    <t>I-40</t>
+  </si>
+  <si>
+    <t>I-41</t>
+  </si>
+  <si>
+    <t>I-42</t>
+  </si>
+  <si>
+    <t>I-43</t>
+  </si>
+  <si>
+    <t>Добавить переключатель день/ночь на активити "из окна", и отправлять по ним команду нулевого этажа</t>
   </si>
 </sst>
 </file>
@@ -604,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,6 +1045,48 @@
         <v>44131</v>
       </c>
     </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>I-1</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Добавить переключатель день/ночь на активити "из окна", и отправлять по ним команду нулевого этажа</t>
+  </si>
+  <si>
+    <t>При смене плана на активити "из окна 360" не отправлялась команда. Сделана отправка на 2 сервера VVVV одной строкой</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,11 +1059,16 @@
         <v>44137</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44138</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>I-1</t>
   </si>
@@ -310,6 +310,10 @@
   </si>
   <si>
     <t>При смене плана на активити "из окна 360" не отправлялась команда. Сделана отправка на 2 сервера VVVV одной строкой</t>
+  </si>
+  <si>
+    <t>1. Добавить кнопку - "Шоу-рум террасы" (см. фигму)
+2. При выборе ночных видов, нужно отобразить кнопку с этажом, а то они не понимают с какого этажа снято.</t>
   </si>
 </sst>
 </file>
@@ -634,7 +638,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+      <selection activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,9 +1074,15 @@
         <v>44138</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44157</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">

--- a/TaskList.xlsx
+++ b/TaskList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>I-1</t>
   </si>
@@ -314,6 +314,12 @@
   <si>
     <t>1. Добавить кнопку - "Шоу-рум террасы" (см. фигму)
 2. При выборе ночных видов, нужно отобразить кнопку с этажом, а то они не понимают с какого этажа снято.</t>
+  </si>
+  <si>
+    <t>Заменить кнопку "Шоу-рум террасы" на новую</t>
+  </si>
+  <si>
+    <t>Добавить url для закачки данных по 5,8 и 9 корпусов</t>
   </si>
 </sst>
 </file>
@@ -638,7 +644,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B40"/>
+      <selection activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,10 +1095,22 @@
       <c r="A41" t="s">
         <v>80</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44159</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44174</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
